--- a/models/data/List of Kinetic Models.xlsx
+++ b/models/data/List of Kinetic Models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mauri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\MyProjects\astoolkit\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E2D7A3-61F4-49CB-8C9D-55F363F6D710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDCC8A8-9FD0-4048-9FCB-630EE1A88A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A48245FD-6B6A-497E-8B16-C1CADEA3146F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A48245FD-6B6A-497E-8B16-C1CADEA3146F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>Model Name</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>N33</t>
+  </si>
+  <si>
+    <t>bsuGR25</t>
+  </si>
+  <si>
+    <t>FUA2231</t>
   </si>
 </sst>
 </file>
@@ -412,12 +418,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -432,11 +435,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,25 +783,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5584041-A284-4063-80B3-FA0C9EAD7AB9}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.7265625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.54296875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="39.90625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="20.1796875" style="5" customWidth="1"/>
-    <col min="5" max="7" width="22.7265625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="72.36328125" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="18.7265625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="39.90625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="9" customWidth="1"/>
+    <col min="5" max="7" width="22.7265625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="72.36328125" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -802,300 +814,344 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>2020</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>566</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>306</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="2">
         <v>310</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>2021</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>566</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>306</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>310</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>2024</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>802</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>737</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>533</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2025</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>162</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>236</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>68</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>2025</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>581</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>580</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>231</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>2025</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>853</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>931</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>302</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>2025</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>2340</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>753</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>1624</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>2025</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <v>3012</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>961</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1801</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>2025</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>856</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>703</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>931</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2025</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <v>1369</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>649</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>1681</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>2025</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>1305</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>571</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>1388</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1300</v>
+      </c>
+      <c r="F13" s="10">
+        <v>650</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1053</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/data/List of Kinetic Models.xlsx
+++ b/models/data/List of Kinetic Models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\MyProjects\astoolkit\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDCC8A8-9FD0-4048-9FCB-630EE1A88A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC90B2A-6C6D-41D4-A034-6984C3B31085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A48245FD-6B6A-497E-8B16-C1CADEA3146F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>Model Name</t>
   </si>
@@ -348,6 +348,78 @@
   </si>
   <si>
     <t>FUA2231</t>
+  </si>
+  <si>
+    <t>bsuLL25</t>
+  </si>
+  <si>
+    <t>Lactobacillus paracasei</t>
+  </si>
+  <si>
+    <t>NTU101</t>
+  </si>
+  <si>
+    <t>Streptococcus thermophilus</t>
+  </si>
+  <si>
+    <t>STH_CIRM_65</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Desulfovibrio desulfuricans</t>
+  </si>
+  <si>
+    <t>L4</t>
+  </si>
+  <si>
+    <t>Streptococcus salivarius</t>
+  </si>
+  <si>
+    <t>JIM8777</t>
+  </si>
+  <si>
+    <t>Streptococcus pneumoniae</t>
+  </si>
+  <si>
+    <t>NCTC7465</t>
+  </si>
+  <si>
+    <t>Haemophilus influenzae</t>
+  </si>
+  <si>
+    <t>FDAARGOS_1560</t>
+  </si>
+  <si>
+    <t>Parabacteroides distasonis</t>
+  </si>
+  <si>
+    <t>APCS2/P</t>
+  </si>
+  <si>
+    <t>Thermus aquaticus</t>
+  </si>
+  <si>
+    <t>Y51MC23</t>
+  </si>
+  <si>
+    <t>Corynebacterium accolens</t>
+  </si>
+  <si>
+    <t>DSM 44278</t>
+  </si>
+  <si>
+    <t>F837/76</t>
+  </si>
+  <si>
+    <t>E33L</t>
+  </si>
+  <si>
+    <t>Bacillus cereus</t>
+  </si>
+  <si>
+    <t>UniKin2</t>
+  </si>
+  <si>
+    <t>Maiyappan et al. 2025. Four Ab Initio Whole Cell Kinetic Models of Bacillus subtilis 168 (bsuLL25) 6051-HGW (bshSM25), N33 (bsuN33SS25), FUA2231 (bsuGR25). Journal of Clinical Immunology &amp; Microbiology 6(2): 1-6.</t>
   </si>
 </sst>
 </file>
@@ -418,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -448,6 +520,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,11 +858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5584041-A284-4063-80B3-FA0C9EAD7AB9}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1083,7 +1158,9 @@
       <c r="G11" s="2">
         <v>1681</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1107,7 +1184,9 @@
       <c r="G12" s="2">
         <v>1388</v>
       </c>
-      <c r="H12" s="7"/>
+      <c r="H12" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -1131,28 +1210,206 @@
       <c r="G13" s="10">
         <v>1053</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="7"/>
+      <c r="A14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2025</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="10">
+        <v>168</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1565</v>
+      </c>
+      <c r="F14" s="10">
+        <v>679</v>
+      </c>
+      <c r="G14" s="10">
+        <v>1554</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>50</v>
+      </c>
       <c r="E15" s="11"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="7"/>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/models/data/List of Kinetic Models.xlsx
+++ b/models/data/List of Kinetic Models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\MyProjects\astoolkit\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\MyProjects\astoolkit\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC90B2A-6C6D-41D4-A034-6984C3B31085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FFBEC1-41B3-40D9-B251-094B8168BB31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A48245FD-6B6A-497E-8B16-C1CADEA3146F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A48245FD-6B6A-497E-8B16-C1CADEA3146F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="74">
   <si>
     <t>Model Name</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>Maiyappan et al. 2025. Four Ab Initio Whole Cell Kinetic Models of Bacillus subtilis 168 (bsuLL25) 6051-HGW (bshSM25), N33 (bsuN33SS25), FUA2231 (bsuGR25). Journal of Clinical Immunology &amp; Microbiology 6(2): 1-6.</t>
+  </si>
+  <si>
+    <t>ATCC 14579</t>
+  </si>
+  <si>
+    <t>ddsAAR26</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -522,6 +528,9 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -858,11 +867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5584041-A284-4063-80B3-FA0C9EAD7AB9}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1241,29 +1250,37 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+      <c r="A15" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="B15" s="10"/>
-      <c r="C15" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="10">
+        <v>9420</v>
+      </c>
+      <c r="F15" s="10">
+        <v>9420</v>
+      </c>
+      <c r="G15" s="10">
+        <v>30669</v>
+      </c>
       <c r="H15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="10"/>
+        <v>50</v>
+      </c>
+      <c r="E16" s="11"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="7"/>
@@ -1272,10 +1289,10 @@
       <c r="A17" s="10"/>
       <c r="B17" s="10"/>
       <c r="C17" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1283,27 +1300,37 @@
       <c r="H17" s="7"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="10">
+        <v>2026</v>
+      </c>
       <c r="C18" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+        <v>54</v>
+      </c>
+      <c r="E18" s="10">
+        <v>768</v>
+      </c>
+      <c r="F18" s="10">
+        <v>276</v>
+      </c>
+      <c r="G18" s="10">
+        <v>1288</v>
+      </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -1314,10 +1341,10 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -1328,10 +1355,10 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -1342,10 +1369,10 @@
       <c r="A22" s="10"/>
       <c r="B22" s="10"/>
       <c r="C22" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -1356,10 +1383,10 @@
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -1370,10 +1397,10 @@
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -1387,7 +1414,7 @@
         <v>69</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -1395,21 +1422,27 @@
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="A26" s="10"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>6</v>
+      <c r="C26" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="7"/>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C27" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
